--- a/1204CTFLife_PD_Broker_Admin_Bulk_Upload_Template (13).xlsx
+++ b/1204CTFLife_PD_Broker_Admin_Bulk_Upload_Template (13).xlsx
@@ -237,7 +237,7 @@
     <t>李</t>
   </si>
   <si>
-    <t>莉莉</t>
+    <t>默默</t>
   </si>
   <si>
     <t>Lili li</t>
@@ -255,7 +255,7 @@
     <t>zh-CN</t>
   </si>
   <si>
-    <t>Lili@cn.ey.com</t>
+    <t>momoli@cn.ey.com</t>
   </si>
   <si>
     <t>HJ1236</t>
@@ -282,7 +282,7 @@
     <t>吴</t>
   </si>
   <si>
-    <t>梅</t>
+    <t>水</t>
   </si>
   <si>
     <t>mei wu</t>
@@ -294,7 +294,7 @@
     <t>zh-TW</t>
   </si>
   <si>
-    <t>meiwu@cn.ey.com</t>
+    <t>shuiwu@cn.ey.com</t>
   </si>
   <si>
     <t>KI1237</t>
@@ -303,7 +303,7 @@
     <t>VHIS</t>
   </si>
   <si>
-    <t>tesB</t>
+    <t>JT</t>
   </si>
   <si>
     <t>lin</t>
@@ -315,7 +315,7 @@
     <t>林</t>
   </si>
   <si>
-    <t>语</t>
+    <t>说</t>
   </si>
   <si>
     <t>yu lin</t>
@@ -330,7 +330,7 @@
     <t>en-US</t>
   </si>
   <si>
-    <t>yulin@hotmail.com</t>
+    <t>shuolin@hotmail.com</t>
   </si>
   <si>
     <t>VB1236</t>
@@ -444,14 +444,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
@@ -462,6 +454,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,12 +975,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1105,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,9 +1130,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,8 +1465,8 @@
   <sheetPr/>
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -1587,7 +1584,7 @@
       <c r="U2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1607,10 +1604,10 @@
       <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -1675,7 +1672,7 @@
       <c r="G4" s="10">
         <v>24</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>43</v>
       </c>
       <c r="I4" s="10" t="s">
@@ -1684,7 +1681,7 @@
       <c r="J4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="10">
@@ -1740,7 +1737,7 @@
       <c r="G5" s="10">
         <v>30</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -1749,7 +1746,7 @@
       <c r="J5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>57</v>
       </c>
       <c r="L5" s="10">
@@ -1833,9 +1830,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" display="Lili@cn.ey.com" tooltip="mailto:Lili@cn.ey.com"/>
-    <hyperlink ref="K4" r:id="rId2" display="meiwu@cn.ey.com" tooltip="mailto:meiwu@cn.ey.com"/>
-    <hyperlink ref="K5" r:id="rId3" display="yulin@hotmail.com" tooltip="mailto:yulin@hotmail.com"/>
+    <hyperlink ref="K3" r:id="rId1" display="momoli@cn.ey.com" tooltip="mailto:momoli@cn.ey.com"/>
+    <hyperlink ref="K4" r:id="rId2" display="shuiwu@cn.ey.com" tooltip="mailto:shuiwu@cn.ey.com"/>
+    <hyperlink ref="K5" r:id="rId3" display="shuolin@hotmail.com" tooltip="mailto:shuolin@hotmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
